--- a/Assignment-4/DataFiles/test1.xlsx
+++ b/Assignment-4/DataFiles/test1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="11">
   <si>
     <t>Author</t>
   </si>

--- a/Assignment-4/DataFiles/test1.xlsx
+++ b/Assignment-4/DataFiles/test1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="11">
   <si>
     <t>Author</t>
   </si>

--- a/Assignment-4/DataFiles/test1.xlsx
+++ b/Assignment-4/DataFiles/test1.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView windowHeight="7070" windowWidth="19200"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="10">
   <si>
     <t>Author</t>
   </si>
@@ -43,33 +45,372 @@
   <si>
     <t>25</t>
   </si>
-  <si>
-    <t/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
-    <font>
-      <sz val="11.0"/>
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -77,44 +418,605 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="49">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="176">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="177">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="13" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="15" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="21" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="23" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="23" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="49">
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
+    <cellStyle builtinId="3" name="Comma" xfId="2"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="4" name="Currency" xfId="5"/>
+    <cellStyle builtinId="5" name="Percent" xfId="6"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="7"/>
+    <cellStyle builtinId="44" name="60% - Accent4" xfId="8"/>
+    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="9"/>
+    <cellStyle builtinId="23" name="Check Cell" xfId="10"/>
+    <cellStyle builtinId="17" name="Heading 2" xfId="11"/>
+    <cellStyle builtinId="10" name="Note" xfId="12"/>
+    <cellStyle builtinId="39" name="40% - Accent3" xfId="13"/>
+    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
+    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
+    <cellStyle builtinId="15" name="Title" xfId="16"/>
+    <cellStyle builtinId="53" name="CExplanatory Text" xfId="17"/>
+    <cellStyle builtinId="16" name="Heading 1" xfId="18"/>
+    <cellStyle builtinId="18" name="Heading 3" xfId="19"/>
+    <cellStyle builtinId="19" name="Heading 4" xfId="20"/>
+    <cellStyle builtinId="20" name="Input" xfId="21"/>
+    <cellStyle builtinId="40" name="60% - Accent3" xfId="22"/>
+    <cellStyle builtinId="26" name="Good" xfId="23"/>
+    <cellStyle builtinId="21" name="Output" xfId="24"/>
+    <cellStyle builtinId="30" name="20% - Accent1" xfId="25"/>
+    <cellStyle builtinId="22" name="Calculation" xfId="26"/>
+    <cellStyle builtinId="24" name="Linked Cell" xfId="27"/>
+    <cellStyle builtinId="25" name="Total" xfId="28"/>
+    <cellStyle builtinId="27" name="Bad" xfId="29"/>
+    <cellStyle builtinId="28" name="Neutral" xfId="30"/>
+    <cellStyle builtinId="29" name="Accent1" xfId="31"/>
+    <cellStyle builtinId="46" name="20% - Accent5" xfId="32"/>
+    <cellStyle builtinId="32" name="60% - Accent1" xfId="33"/>
+    <cellStyle builtinId="33" name="Accent2" xfId="34"/>
+    <cellStyle builtinId="34" name="20% - Accent2" xfId="35"/>
+    <cellStyle builtinId="50" name="20% - Accent6" xfId="36"/>
+    <cellStyle builtinId="36" name="60% - Accent2" xfId="37"/>
+    <cellStyle builtinId="37" name="Accent3" xfId="38"/>
+    <cellStyle builtinId="38" name="20% - Accent3" xfId="39"/>
+    <cellStyle builtinId="41" name="Accent4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - Accent4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - Accent4" xfId="42"/>
+    <cellStyle builtinId="45" name="Accent5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - Accent5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - Accent5" xfId="45"/>
+    <cellStyle builtinId="49" name="Accent6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - Accent6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - Accent6" xfId="48"/>
+  </cellStyles>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr lastClr="000000" val="windowText"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <sheetPr/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="$A1:$XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -122,10 +1024,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -133,24 +1035,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assignment-4/DataFiles/test1.xlsx
+++ b/Assignment-4/DataFiles/test1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="10">
   <si>
     <t>Author</t>
   </si>
